--- a/_site/Data/HolidayPlansModule.xlsx
+++ b/_site/Data/HolidayPlansModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55FA4E7-C67E-804A-AE6F-60210C3859C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A9949-E6E1-734F-B4EE-076E4A403924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{C64426CD-07FE-A84B-92B6-C25528488389}"/>
+    <workbookView xWindow="33120" yWindow="1880" windowWidth="28800" windowHeight="16400" xr2:uid="{C64426CD-07FE-A84B-92B6-C25528488389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?                                                                            • Thanksgiving                                                                                                            • December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•  Celebrated with big groups of people, such as my family/friends/neighbors 
-•  Celebrated only with members of my immediate household 
-• Did not celebrate at all </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t xml:space="preserve">•  Planning to celebrate with big groups of people, such as my family/ friends/ neighbors this year 
-• Planning to celebrate this year, but only with members of my immediate household 
-• Planning to celebrate but with a somewhat reduced and/or socially distanced group                                           • Not planning on celebrating at all </t>
-  </si>
-  <si>
     <t>Does the COVID-19 pandemic affect the travel plans of you or anyone else who participates in your holiday celebrations?</t>
   </si>
   <si>
-    <t xml:space="preserve">•  Yes, we are not traveling  
-• Yes, others are not traveling  
-• Don’t usually travel                                                             •	No impact  </t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -63,13 +45,39 @@
     <t>Occurrence</t>
   </si>
   <si>
-    <t>Week 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?                                                                                   • Thanksgiving                                                                                                            • December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Celebrated with big groups of people, such as my family/friends/neighbors 
+•Celebrated only with members of my immediate household 
+•Did not celebrate at all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Planning to celebrate with big groups of people, such as my family/ friends/ neighbors this year 
+•Planning to celebrate this year, but only with members of my immediate household 
+•Planning to celebrate but with a somewhat reduced and/or socially distanced group
+•Not planning on celebrating at all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes, we are not traveling  
+•Yes, others are not traveling  
+•Don’t usually travel                                                             •No impact  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?
+                                                                                                       •December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?
+•Thanksgiving                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?
+•Thanksgiving                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?
+•December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
   </si>
 </sst>
 </file>
@@ -111,13 +119,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,78 +450,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E156FE2-A8D9-484B-A166-193C1B4D9B49}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/HolidayPlansModule.xlsx
+++ b/_site/Data/HolidayPlansModule.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A9949-E6E1-734F-B4EE-076E4A403924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A9949-E6E1-734F-B4EE-076E4A403924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33120" yWindow="1880" windowWidth="28800" windowHeight="16400" xr2:uid="{C64426CD-07FE-A84B-92B6-C25528488389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Does the COVID-19 pandemic affect the travel plans of you or anyone else who participates in your holiday celebrations?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -42,15 +45,33 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?
+•Thanksgiving                                                                                                            </t>
   </si>
   <si>
     <t xml:space="preserve">•Celebrated with big groups of people, such as my family/friends/neighbors 
 •Celebrated only with members of my immediate household 
 •Did not celebrate at all </t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>11/17/2020-11/19/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?
+                                                                                                       •December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?
+•Thanksgiving                                                                                                            </t>
   </si>
   <si>
     <t xml:space="preserve">•Planning to celebrate with big groups of people, such as my family/ friends/ neighbors this year 
@@ -59,32 +80,23 @@
 •Not planning on celebrating at all </t>
   </si>
   <si>
+    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?
+•December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
+  </si>
+  <si>
+    <t>Does the COVID-19 pandemic affect the travel plans of you or anyone else who participates in your holiday celebrations?</t>
+  </si>
+  <si>
     <t xml:space="preserve">•Yes, we are not traveling  
 •Yes, others are not traveling  
 •Don’t usually travel                                                             •No impact  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?
-                                                                                                       •December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a usual year before the COVID-19 pandemic, for each of the holidays below, how did you celebrate?
-•Thanksgiving                                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?
-•Thanksgiving                                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This year, for each of the holidays below, what are your plans?
-•December/January holidays (Christmas, Hanukah, Kwanzaa, New Years) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,108 +465,108 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="24.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="85.5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" ht="85.5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="157.5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5">
-        <v>33</v>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:5" ht="157.5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5">
-        <v>33</v>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:5" ht="63">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
